--- a/要件定義書フォーマット.xlsx
+++ b/要件定義書フォーマット.xlsx
@@ -345,6 +345,625 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>312961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2544536</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="線吹き出し 2 (枠付き) 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3973285" y="2204354"/>
+          <a:ext cx="2217965" cy="571503"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 3624"/>
+            <a:gd name="adj4" fmla="val -26827"/>
+            <a:gd name="adj5" fmla="val -47723"/>
+            <a:gd name="adj6" fmla="val -54311"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>背景や目的を最初に聞く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>217712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2435679</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="線吹き出し 2 (枠付き) 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7456714" y="1673676"/>
+          <a:ext cx="2217965" cy="571502"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 3624"/>
+            <a:gd name="adj4" fmla="val -26827"/>
+            <a:gd name="adj5" fmla="val -47723"/>
+            <a:gd name="adj6" fmla="val -54311"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>いつ誰が何を言ったかを記録する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>625929</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>217711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1265465</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="線吹き出し 2 (枠付き) 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12355286" y="3374568"/>
+          <a:ext cx="2217965" cy="571502"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 3624"/>
+            <a:gd name="adj4" fmla="val -26827"/>
+            <a:gd name="adj5" fmla="val -47723"/>
+            <a:gd name="adj6" fmla="val -54311"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>誰がタマ持ちかを明確にする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>721179</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1360715</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="線吹き出し 2 (枠付き) 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12450536" y="1592032"/>
+          <a:ext cx="2217965" cy="571502"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -7440"/>
+            <a:gd name="adj2" fmla="val 19888"/>
+            <a:gd name="adj3" fmla="val -55900"/>
+            <a:gd name="adj4" fmla="val -447"/>
+            <a:gd name="adj5" fmla="val -154865"/>
+            <a:gd name="adj6" fmla="val -19342"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>今後の展開も極力聞く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>217710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3592285</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="線吹き出し 2 (枠付き) 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4503964" y="3129639"/>
+          <a:ext cx="2735035" cy="816432"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 3624"/>
+            <a:gd name="adj4" fmla="val -23327"/>
+            <a:gd name="adj5" fmla="val -44813"/>
+            <a:gd name="adj6" fmla="val -48924"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・一行は一論点とする。論点が異なる場合は別の行にする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>285748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1782536</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>748393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="線吹き出し 2 (枠付き) 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1768929" y="884462"/>
+          <a:ext cx="3660321" cy="462645"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 53642"/>
+            <a:gd name="adj4" fmla="val -11184"/>
+            <a:gd name="adj5" fmla="val 149173"/>
+            <a:gd name="adj6" fmla="val -21363"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>似た項目はグルーピングして関連が分かりやすくする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2680608" y="3048000"/>
+          <a:ext cx="0" cy="2027465"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2723</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>329293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2723</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>315686</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3649437" y="3581400"/>
+          <a:ext cx="0" cy="2027465"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1211036</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>312964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1864179</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2843893" y="3565071"/>
+          <a:ext cx="653143" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>843642</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="線吹き出し 2 (枠付き) 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4490356" y="4435928"/>
+          <a:ext cx="3265715" cy="802822"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 3624"/>
+            <a:gd name="adj4" fmla="val -26827"/>
+            <a:gd name="adj5" fmla="val -29866"/>
+            <a:gd name="adj6" fmla="val -42572"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>進め方は広く浅く、時間があるなら深く（アルファベットの「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」をかくように。「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Z</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」ではなく）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -639,7 +1258,9 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -684,7 +1305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -831,7 +1452,6 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -880,5 +1500,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="67" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>